--- a/Seminar_returns.xlsx
+++ b/Seminar_returns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LCR\14_ RiskControl\22_Quantitative Risk Control\APT Seminar\apt_seminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\iCloudDrive\Docs\Ausbildung\QuantLibrary\MScQF_Thesis\9. APT Seminar\apt_seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22715E58-C04D-48D5-AAD3-E432DCA7641C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853FA8F-5EB1-420C-948B-942B28F7B174}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time series" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="587">
   <si>
     <t>date</t>
   </si>
@@ -1794,6 +1794,9 @@
   </si>
   <si>
     <t>31.08.2019</t>
+  </si>
+  <si>
+    <t>before</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1804,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1845,7 +1848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1860,17 +1863,11 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1917,6 +1914,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Saa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> 31.08.2019</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2366,6 +2393,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2323693556570118E-2"/>
+                  <c:y val="-4.6920825929688138E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2392,7 +2425,7 @@
                   <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -2400,6 +2433,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-4D88-4775-9ECC-BCEA611811F1}"/>
                 </c:ext>
@@ -2409,8 +2443,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1014912805913608"/>
-                  <c:y val="-7.0008351228823665E-2"/>
+                  <c:x val="0.12584442926369363"/>
+                  <c:y val="-9.6075419788478611E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -2865,6 +2899,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3051,7 +3092,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3620,16 +3661,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2466975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3963,26 +4004,26 @@
       <selection pane="bottomRight" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.53515625" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.3046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.3828125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.53515625" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="1020" width="10.5703125" customWidth="1"/>
+    <col min="15" max="1020" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4070,7 +4111,7 @@
         <v>4.0865325399999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -4111,7 +4152,7 @@
         <v>5.1623690100000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -4152,7 +4193,7 @@
         <v>-7.1246000999999996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -4193,7 +4234,7 @@
         <v>2.2066670100000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -4234,7 +4275,7 @@
         <v>0.1021203597</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -4275,7 +4316,7 @@
         <v>0.10018930400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4316,7 +4357,7 @@
         <v>6.6662864099999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4357,7 +4398,7 @@
         <v>2.2313404500000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -4398,7 +4439,7 @@
         <v>-1.8463872199999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -4439,7 +4480,7 @@
         <v>-7.6132092999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -4480,7 +4521,7 @@
         <v>-3.8260023099999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -4521,7 +4562,7 @@
         <v>1.26830895E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -4562,7 +4603,7 @@
         <v>-2.03133177E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -4603,7 +4644,7 @@
         <v>-1.1699565699999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -4644,7 +4685,7 @@
         <v>0.15747227690000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -4685,7 +4726,7 @@
         <v>7.22037185E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -4726,7 +4767,7 @@
         <v>7.15815385E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -4767,7 +4808,7 @@
         <v>0.10764704210000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -4808,7 +4849,7 @@
         <v>-2.5404515200000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -4849,7 +4890,7 @@
         <v>-5.6363131499999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -4890,7 +4931,7 @@
         <v>-3.6482393500000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -4931,7 +4972,7 @@
         <v>-5.1841596999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -4972,7 +5013,7 @@
         <v>-2.00344059E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -5013,7 +5054,7 @@
         <v>0.1303102857</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -5054,7 +5095,7 @@
         <v>0.19149144239999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -5095,7 +5136,7 @@
         <v>0.1154444364</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -5136,7 +5177,7 @@
         <v>7.6810634599999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5177,7 +5218,7 @@
         <v>-1.14576808E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -5218,7 +5259,7 @@
         <v>-3.2752196099999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
@@ -5259,7 +5300,7 @@
         <v>-5.08230431E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
@@ -5300,7 +5341,7 @@
         <v>-8.4818681899999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -5341,7 +5382,7 @@
         <v>9.0760282100000006E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
@@ -5382,7 +5423,7 @@
         <v>-3.81830633E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
@@ -5423,7 +5464,7 @@
         <v>1.9362734600000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
@@ -5464,7 +5505,7 @@
         <v>7.6716506000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
@@ -5505,7 +5546,7 @@
         <v>-5.8707624799999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
@@ -5546,7 +5587,7 @@
         <v>-5.5564486699999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -5587,7 +5628,7 @@
         <v>-6.1709197999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
@@ -5628,7 +5669,7 @@
         <v>3.5616047300000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
@@ -5669,7 +5710,7 @@
         <v>-6.0000536299999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>55</v>
       </c>
@@ -5710,7 +5751,7 @@
         <v>-1.8848079699999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -5751,7 +5792,7 @@
         <v>2.7250016000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -5792,7 +5833,7 @@
         <v>7.2684563999999993E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -5833,7 +5874,7 @@
         <v>-4.96674514E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
@@ -5874,7 +5915,7 @@
         <v>-0.1018722324</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>60</v>
       </c>
@@ -5915,7 +5956,7 @@
         <v>-3.3718876100000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>61</v>
       </c>
@@ -5956,7 +5997,7 @@
         <v>-1.1407317700000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>62</v>
       </c>
@@ -5997,8 +6038,8 @@
         <v>-8.2646572000000008E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="13">
         <v>27790</v>
       </c>
       <c r="B50" s="4">
@@ -6038,7 +6079,7 @@
         <v>-9.7358857399999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>63</v>
       </c>
@@ -6079,7 +6120,7 @@
         <v>1.97889511E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>64</v>
       </c>
@@ -6120,7 +6161,7 @@
         <v>-3.0520454900000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>65</v>
       </c>
@@ -6161,7 +6202,7 @@
         <v>-2.0731991500000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>66</v>
       </c>
@@ -6202,7 +6243,7 @@
         <v>-4.93214212E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>67</v>
       </c>
@@ -6243,7 +6284,7 @@
         <v>-6.7910894999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
@@ -6284,7 +6325,7 @@
         <v>-8.9207246300000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>69</v>
       </c>
@@ -6325,7 +6366,7 @@
         <v>-8.0403865699999993E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>70</v>
       </c>
@@ -6366,7 +6407,7 @@
         <v>9.5714025300000005E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>71</v>
       </c>
@@ -6407,7 +6448,7 @@
         <v>5.3464434900000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>72</v>
       </c>
@@ -6448,7 +6489,7 @@
         <v>6.2474637899999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>73</v>
       </c>
@@ -6489,7 +6530,7 @@
         <v>3.2619363700000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>74</v>
       </c>
@@ -6530,7 +6571,7 @@
         <v>8.7867628000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>75</v>
       </c>
@@ -6571,7 +6612,7 @@
         <v>9.4561451300000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>76</v>
       </c>
@@ -6612,7 +6653,7 @@
         <v>3.84581435E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>77</v>
       </c>
@@ -6653,7 +6694,7 @@
         <v>-2.3890446199999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>78</v>
       </c>
@@ -6694,7 +6735,7 @@
         <v>-3.2878204100000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>79</v>
       </c>
@@ -6735,7 +6776,7 @@
         <v>-1.6016278700000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>80</v>
       </c>
@@ -6776,7 +6817,7 @@
         <v>-1.6414803499999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>81</v>
       </c>
@@ -6817,7 +6858,7 @@
         <v>7.3138804999999998E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>82</v>
       </c>
@@ -6858,7 +6899,7 @@
         <v>3.3446584000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>83</v>
       </c>
@@ -6899,7 +6940,7 @@
         <v>-2.1273936000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>84</v>
       </c>
@@ -6940,7 +6981,7 @@
         <v>-4.0317410200000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>85</v>
       </c>
@@ -6981,7 +7022,7 @@
         <v>-5.5064106799999998E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>86</v>
       </c>
@@ -7022,7 +7063,7 @@
         <v>5.9391864199999998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>87</v>
       </c>
@@ -7063,7 +7104,7 @@
         <v>-4.3737655100000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>88</v>
       </c>
@@ -7104,7 +7145,7 @@
         <v>1.8885356700000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>89</v>
       </c>
@@ -7145,7 +7186,7 @@
         <v>-2.7593888600000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
@@ -7186,7 +7227,7 @@
         <v>5.5218343699999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>91</v>
       </c>
@@ -7227,7 +7268,7 @@
         <v>-3.0020879100000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
@@ -7268,7 +7309,7 @@
         <v>2.5575074100000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>93</v>
       </c>
@@ -7309,7 +7350,7 @@
         <v>-1.4585282999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>94</v>
       </c>
@@ -7350,7 +7391,7 @@
         <v>-1.7378275200000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>95</v>
       </c>
@@ -7391,7 +7432,7 @@
         <v>7.6204977300000004E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -7432,7 +7473,7 @@
         <v>-7.8315448300000007E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>97</v>
       </c>
@@ -7473,7 +7514,7 @@
         <v>8.6133993500000006E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
@@ -7514,7 +7555,7 @@
         <v>8.2966472400000005E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
@@ -7555,7 +7596,7 @@
         <v>5.37014133E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>100</v>
       </c>
@@ -7596,7 +7637,7 @@
         <v>-3.00348501E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
@@ -7637,7 +7678,7 @@
         <v>3.9135649199999997E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>102</v>
       </c>
@@ -7678,7 +7719,7 @@
         <v>0.11252055850000001</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -7719,7 +7760,7 @@
         <v>-3.0375491599999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>104</v>
       </c>
@@ -7760,7 +7801,7 @@
         <v>6.9385507299999996E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>105</v>
       </c>
@@ -7801,7 +7842,7 @@
         <v>5.8341620199999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>106</v>
       </c>
@@ -7842,7 +7883,7 @@
         <v>0.1666837165</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>107</v>
       </c>
@@ -7883,7 +7924,7 @@
         <v>2.873937E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>108</v>
       </c>
@@ -7924,7 +7965,7 @@
         <v>4.6013775100000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>109</v>
       </c>
@@ -7965,7 +8006,7 @@
         <v>0.20557545159999999</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>110</v>
       </c>
@@ -8006,7 +8047,7 @@
         <v>0.27077706410000002</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>111</v>
       </c>
@@ -8047,7 +8088,7 @@
         <v>1.3207811E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>112</v>
       </c>
@@ -8088,7 +8129,7 @@
         <v>-0.1691722598</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>113</v>
       </c>
@@ -8129,7 +8170,7 @@
         <v>-5.8729049300000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>114</v>
       </c>
@@ -8170,7 +8211,7 @@
         <v>2.7015793E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>115</v>
       </c>
@@ -8211,7 +8252,7 @@
         <v>0.18194282279999999</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>116</v>
       </c>
@@ -8252,7 +8293,7 @@
         <v>-4.90486111E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>117</v>
       </c>
@@ -8293,7 +8334,7 @@
         <v>2.6978627599999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>118</v>
       </c>
@@ -8334,7 +8375,7 @@
         <v>5.7208444599999998E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>119</v>
       </c>
@@ -8375,7 +8416,7 @@
         <v>-2.3638010800000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>120</v>
       </c>
@@ -8416,7 +8457,7 @@
         <v>2.2229963999999998E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>121</v>
       </c>
@@ -8457,7 +8498,7 @@
         <v>-2.8800302400000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>122</v>
       </c>
@@ -8498,7 +8539,7 @@
         <v>-6.9494466399999996E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>123</v>
       </c>
@@ -8539,7 +8580,7 @@
         <v>-1.8209011600000002E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>124</v>
       </c>
@@ -8580,7 +8621,7 @@
         <v>2.8149661999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>125</v>
       </c>
@@ -8621,7 +8662,7 @@
         <v>-1.30583781E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>126</v>
       </c>
@@ -8662,7 +8703,7 @@
         <v>1.9831295700000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>127</v>
       </c>
@@ -8703,7 +8744,7 @@
         <v>-0.13175081420000001</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>128</v>
       </c>
@@ -8744,7 +8785,7 @@
         <v>3.8042939999999997E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>129</v>
       </c>
@@ -8785,7 +8826,7 @@
         <v>3.9044670099999998E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>130</v>
       </c>
@@ -8826,7 +8867,7 @@
         <v>-6.8322148700000002E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>131</v>
       </c>
@@ -8867,7 +8908,7 @@
         <v>-8.0022731E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>132</v>
       </c>
@@ -8908,7 +8949,7 @@
         <v>-6.3504287199999995E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>133</v>
       </c>
@@ -8949,7 +8990,7 @@
         <v>-2.5319283299999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>134</v>
       </c>
@@ -8990,7 +9031,7 @@
         <v>-4.1677359999999999E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>135</v>
       </c>
@@ -9031,7 +9072,7 @@
         <v>-4.0202351999999997E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>136</v>
       </c>
@@ -9072,7 +9113,7 @@
         <v>-0.1045044099</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>137</v>
       </c>
@@ -9113,7 +9154,7 @@
         <v>0.1346546076</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>138</v>
       </c>
@@ -9154,7 +9195,7 @@
         <v>-8.3306933099999994E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>139</v>
       </c>
@@ -9195,7 +9236,7 @@
         <v>1.9771368000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>140</v>
       </c>
@@ -9236,7 +9277,7 @@
         <v>7.6683764000000001E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>141</v>
       </c>
@@ -9277,7 +9318,7 @@
         <v>0.202065156</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>142</v>
       </c>
@@ -9318,7 +9359,7 @@
         <v>-1.7915599099999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>143</v>
       </c>
@@ -9359,7 +9400,7 @@
         <v>7.9828624599999995E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>144</v>
       </c>
@@ -9400,7 +9441,7 @@
         <v>-9.306557E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>145</v>
       </c>
@@ -9441,7 +9482,7 @@
         <v>-9.2854683000000004E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>146</v>
       </c>
@@ -9482,7 +9523,7 @@
         <v>9.34305681E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>147</v>
       </c>
@@ -9523,7 +9564,7 @@
         <v>-0.1792160847</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>148</v>
       </c>
@@ -9564,7 +9605,7 @@
         <v>2.73414711E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>149</v>
       </c>
@@ -9605,7 +9646,7 @@
         <v>2.64894195E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>150</v>
       </c>
@@ -9646,7 +9687,7 @@
         <v>3.3542874700000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>151</v>
       </c>
@@ -9687,7 +9728,7 @@
         <v>-5.21561912E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>152</v>
       </c>
@@ -9728,7 +9769,7 @@
         <v>3.1247066699999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>153</v>
       </c>
@@ -9769,7 +9810,7 @@
         <v>7.6608880000000002E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>154</v>
       </c>
@@ -9810,7 +9851,7 @@
         <v>-5.2517580100000003E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>155</v>
       </c>
@@ -9851,7 +9892,7 @@
         <v>-4.9629628000000002E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>156</v>
       </c>
@@ -9892,7 +9933,7 @@
         <v>6.7401772200000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>157</v>
       </c>
@@ -9933,7 +9974,7 @@
         <v>-4.82701517E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>158</v>
       </c>
@@ -9974,7 +10015,7 @@
         <v>1.0595967099999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>159</v>
       </c>
@@ -10015,7 +10056,7 @@
         <v>1.4514223E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>160</v>
       </c>
@@ -10056,7 +10097,7 @@
         <v>-2.2203806699999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>161</v>
       </c>
@@ -10097,7 +10138,7 @@
         <v>9.7475588999999998E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>162</v>
       </c>
@@ -10138,7 +10179,7 @@
         <v>2.8389860699999998E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>163</v>
       </c>
@@ -10179,7 +10220,7 @@
         <v>1.103344E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>164</v>
       </c>
@@ -10220,7 +10261,7 @@
         <v>-3.2624902400000003E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>165</v>
       </c>
@@ -10261,7 +10302,7 @@
         <v>-3.3075257999999998E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>166</v>
       </c>
@@ -10302,7 +10343,7 @@
         <v>3.1230843300000002E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>167</v>
       </c>
@@ -10343,7 +10384,7 @@
         <v>-3.9174700799999997E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>168</v>
       </c>
@@ -10384,7 +10425,7 @@
         <v>9.5280533000000004E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>169</v>
       </c>
@@ -10425,7 +10466,7 @@
         <v>-4.4436953899999999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>170</v>
       </c>
@@ -10466,7 +10507,7 @@
         <v>2.01309959E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>171</v>
       </c>
@@ -10507,7 +10548,7 @@
         <v>2.1677989000000002E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>172</v>
       </c>
@@ -10548,7 +10589,7 @@
         <v>3.9869415399999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>173</v>
       </c>
@@ -10589,7 +10630,7 @@
         <v>-2.3663101799999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>174</v>
       </c>
@@ -10630,7 +10671,7 @@
         <v>-3.1962677199999998E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>175</v>
       </c>
@@ -10671,7 +10712,7 @@
         <v>-2.4652950000000002E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>176</v>
       </c>
@@ -10712,7 +10753,7 @@
         <v>-6.7382114000000007E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>177</v>
       </c>
@@ -10753,7 +10794,7 @@
         <v>1.9182936599999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>178</v>
       </c>
@@ -10794,7 +10835,7 @@
         <v>-7.0731321999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>179</v>
       </c>
@@ -10835,7 +10876,7 @@
         <v>-2.5138642100000001E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>180</v>
       </c>
@@ -10876,7 +10917,7 @@
         <v>-3.1818991499999998E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>181</v>
       </c>
@@ -10917,7 +10958,7 @@
         <v>-5.5956807999999999E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>182</v>
       </c>
@@ -10958,7 +10999,7 @@
         <v>5.42368612E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>183</v>
       </c>
@@ -10999,7 +11040,7 @@
         <v>-0.1071846961</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>184</v>
       </c>
@@ -11040,7 +11081,7 @@
         <v>4.8128509E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>185</v>
       </c>
@@ -11081,7 +11122,7 @@
         <v>-6.7159186499999995E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>186</v>
       </c>
@@ -11122,7 +11163,7 @@
         <v>5.6917525699999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>187</v>
       </c>
@@ -11163,7 +11204,7 @@
         <v>-6.6494712299999995E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>188</v>
       </c>
@@ -11204,7 +11245,7 @@
         <v>-3.4648905100000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>189</v>
       </c>
@@ -11245,7 +11286,7 @@
         <v>5.2966005300000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>190</v>
       </c>
@@ -11286,7 +11327,7 @@
         <v>9.7764702699999997E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>191</v>
       </c>
@@ -11327,7 +11368,7 @@
         <v>-1.38282223E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>192</v>
       </c>
@@ -11368,7 +11409,7 @@
         <v>-8.6914569299999994E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>193</v>
       </c>
@@ -11409,7 +11450,7 @@
         <v>-5.2610328E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>194</v>
       </c>
@@ -11450,7 +11491,7 @@
         <v>-1.33439696E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>195</v>
       </c>
@@ -11491,7 +11532,7 @@
         <v>8.1535040000000007E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>196</v>
       </c>
@@ -11532,7 +11573,7 @@
         <v>-1.7645759099999998E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>197</v>
       </c>
@@ -11573,7 +11614,7 @@
         <v>8.8767043099999998E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>198</v>
       </c>
@@ -11614,7 +11655,7 @@
         <v>1.8649401900000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>199</v>
       </c>
@@ -11655,7 +11696,7 @@
         <v>-6.2098261000000004E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>200</v>
       </c>
@@ -11696,7 +11737,7 @@
         <v>4.8877575999999999E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>201</v>
       </c>
@@ -11737,7 +11778,7 @@
         <v>-5.0720643500000002E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>202</v>
       </c>
@@ -11778,7 +11819,7 @@
         <v>4.1584410099999997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>203</v>
       </c>
@@ -11819,7 +11860,7 @@
         <v>-5.0746020699999998E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>204</v>
       </c>
@@ -11860,7 +11901,7 @@
         <v>-1.23703245E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>205</v>
       </c>
@@ -11901,7 +11942,7 @@
         <v>-7.0295884899999994E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>206</v>
       </c>
@@ -11942,7 +11983,7 @@
         <v>1.4457520200000001E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>207</v>
       </c>
@@ -11983,7 +12024,7 @@
         <v>-5.4611645600000001E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>208</v>
       </c>
@@ -12024,7 +12065,7 @@
         <v>4.9863220999999999E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>209</v>
       </c>
@@ -12065,7 +12106,7 @@
         <v>4.2854716999999997E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>210</v>
       </c>
@@ -12106,7 +12147,7 @@
         <v>4.96959051E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>211</v>
       </c>
@@ -12147,7 +12188,7 @@
         <v>5.3960019999999996E-4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>212</v>
       </c>
@@ -12188,7 +12229,7 @@
         <v>3.5341503000000003E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>213</v>
       </c>
@@ -12229,7 +12270,7 @@
         <v>-5.3249997999999998E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>214</v>
       </c>
@@ -12270,7 +12311,7 @@
         <v>-7.4185280100000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>215</v>
       </c>
@@ -12311,7 +12352,7 @@
         <v>-1.6954586099999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>216</v>
       </c>
@@ -12352,7 +12393,7 @@
         <v>-7.7945493999999997E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>217</v>
       </c>
@@ -12393,7 +12434,7 @@
         <v>3.0137164999999998E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>218</v>
       </c>
@@ -12434,7 +12475,7 @@
         <v>2.25426614E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>219</v>
       </c>
@@ -12475,7 +12516,7 @@
         <v>-4.6237500600000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>220</v>
       </c>
@@ -12516,7 +12557,7 @@
         <v>5.6586777900000003E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>221</v>
       </c>
@@ -12557,7 +12598,7 @@
         <v>-8.339941E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>222</v>
       </c>
@@ -12598,7 +12639,7 @@
         <v>-2.2903653900000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>223</v>
       </c>
@@ -12639,7 +12680,7 @@
         <v>1.4306277500000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>224</v>
       </c>
@@ -12680,7 +12721,7 @@
         <v>-5.6423643599999997E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>225</v>
       </c>
@@ -12721,7 +12762,7 @@
         <v>2.6576358500000001E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>226</v>
       </c>
@@ -12762,7 +12803,7 @@
         <v>-2.1794419299999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>227</v>
       </c>
@@ -12803,7 +12844,7 @@
         <v>1.8845629799999999E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>228</v>
       </c>
@@ -12844,7 +12885,7 @@
         <v>6.8805377400000006E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>229</v>
       </c>
@@ -12885,7 +12926,7 @@
         <v>-4.7408351000000001E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>230</v>
       </c>
@@ -12926,7 +12967,7 @@
         <v>7.7688899999999997E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>231</v>
       </c>
@@ -12967,7 +13008,7 @@
         <v>-2.57896736E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>232</v>
       </c>
@@ -13008,7 +13049,7 @@
         <v>-9.8699586199999995E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>233</v>
       </c>
@@ -13049,7 +13090,7 @@
         <v>-3.1248450399999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>234</v>
       </c>
@@ -13090,7 +13131,7 @@
         <v>-2.6065587099999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>235</v>
       </c>
@@ -13131,7 +13172,7 @@
         <v>-4.2095059599999998E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>236</v>
       </c>
@@ -13172,7 +13213,7 @@
         <v>6.4605681999999999E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>237</v>
       </c>
@@ -13213,7 +13254,7 @@
         <v>1.02884816E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>238</v>
       </c>
@@ -13254,7 +13295,7 @@
         <v>4.4657226100000003E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>239</v>
       </c>
@@ -13295,7 +13336,7 @@
         <v>-8.2957719200000002E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>240</v>
       </c>
@@ -13336,7 +13377,7 @@
         <v>7.2735830000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>241</v>
       </c>
@@ -13377,7 +13418,7 @@
         <v>-7.5196726E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>242</v>
       </c>
@@ -13418,7 +13459,7 @@
         <v>-5.8791646000000003E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>243</v>
       </c>
@@ -13459,7 +13500,7 @@
         <v>4.40573389E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>244</v>
       </c>
@@ -13500,7 +13541,7 @@
         <v>7.3438175300000005E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>245</v>
       </c>
@@ -13541,7 +13582,7 @@
         <v>1.6166323999999999E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>246</v>
       </c>
@@ -13582,7 +13623,7 @@
         <v>2.9971686500000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>247</v>
       </c>
@@ -13623,7 +13664,7 @@
         <v>7.2029934599999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>248</v>
       </c>
@@ -13664,7 +13705,7 @@
         <v>-3.6346843099999998E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>249</v>
       </c>
@@ -13705,7 +13746,7 @@
         <v>-4.2110579000000002E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>250</v>
       </c>
@@ -13746,7 +13787,7 @@
         <v>-3.13423928E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>251</v>
       </c>
@@ -13787,7 +13828,7 @@
         <v>1.8073124499999999E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>252</v>
       </c>
@@ -13828,7 +13869,7 @@
         <v>4.7468422000000003E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>253</v>
       </c>
@@ -13869,7 +13910,7 @@
         <v>-9.4882016400000005E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>254</v>
       </c>
@@ -13910,7 +13951,7 @@
         <v>5.5780127300000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>255</v>
       </c>
@@ -13951,7 +13992,7 @@
         <v>3.6978730799999998E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>256</v>
       </c>
@@ -13992,7 +14033,7 @@
         <v>-2.3300650199999998E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>257</v>
       </c>
@@ -14033,7 +14074,7 @@
         <v>-4.9668782000000002E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>258</v>
       </c>
@@ -14074,7 +14115,7 @@
         <v>-3.7104552399999997E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>259</v>
       </c>
@@ -14115,7 +14156,7 @@
         <v>-4.08393726E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>260</v>
       </c>
@@ -14156,7 +14197,7 @@
         <v>-1.6521139999999999E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>261</v>
       </c>
@@ -14197,7 +14238,7 @@
         <v>-9.2001904199999998E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>262</v>
       </c>
@@ -14238,7 +14279,7 @@
         <v>1.0765599E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>263</v>
       </c>
@@ -14279,7 +14320,7 @@
         <v>8.2170904500000003E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>264</v>
       </c>
@@ -14320,7 +14361,7 @@
         <v>2.6105014999999999E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>265</v>
       </c>
@@ -14361,7 +14402,7 @@
         <v>1.51193435E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>266</v>
       </c>
@@ -14402,7 +14443,7 @@
         <v>7.219339E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>267</v>
       </c>
@@ -14443,7 +14484,7 @@
         <v>1.8217278100000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>268</v>
       </c>
@@ -14484,7 +14525,7 @@
         <v>9.3571942000000002E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>269</v>
       </c>
@@ -14525,7 +14566,7 @@
         <v>6.3805581999999998E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>270</v>
       </c>
@@ -14566,7 +14607,7 @@
         <v>4.4415475599999997E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>271</v>
       </c>
@@ -14607,7 +14648,7 @@
         <v>7.3052394899999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>272</v>
       </c>
@@ -14648,7 +14689,7 @@
         <v>6.7668899199999993E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>273</v>
       </c>
@@ -14689,7 +14730,7 @@
         <v>-0.1055982847</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>274</v>
       </c>
@@ -14730,7 +14771,7 @@
         <v>-7.9475065900000003E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>275</v>
       </c>
@@ -14771,7 +14812,7 @@
         <v>7.7153247100000003E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>276</v>
       </c>
@@ -14812,7 +14853,7 @@
         <v>1.3874556600000001E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>277</v>
       </c>
@@ -14853,7 +14894,7 @@
         <v>4.1644105700000003E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>278</v>
       </c>
@@ -14894,7 +14935,7 @@
         <v>-4.5819024799999997E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>279</v>
       </c>
@@ -14935,7 +14976,7 @@
         <v>-1.6920143200000001E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>280</v>
       </c>
@@ -14976,7 +15017,7 @@
         <v>6.2597023999999999E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>281</v>
       </c>
@@ -15017,7 +15058,7 @@
         <v>-3.4316507900000001E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>282</v>
       </c>
@@ -15058,7 +15099,7 @@
         <v>2.5694015600000002E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>283</v>
       </c>
@@ -15099,7 +15140,7 @@
         <v>-4.5432647E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>284</v>
       </c>
@@ -15140,7 +15181,7 @@
         <v>-5.3875353999999999E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>285</v>
       </c>
@@ -15181,7 +15222,7 @@
         <v>-7.0844024000000002E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>286</v>
       </c>
@@ -15222,7 +15263,7 @@
         <v>-8.9116212000000007E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>287</v>
       </c>
@@ -15263,7 +15304,7 @@
         <v>-5.1618211800000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>288</v>
       </c>
@@ -15304,7 +15345,7 @@
         <v>5.2538046099999999E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>289</v>
       </c>
@@ -15345,7 +15386,7 @@
         <v>-1.4815887599999999E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>290</v>
       </c>
@@ -15386,7 +15427,7 @@
         <v>-4.6716290000000001E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>291</v>
       </c>
@@ -15427,7 +15468,7 @@
         <v>-2.22876386E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>292</v>
       </c>
@@ -15468,7 +15509,7 @@
         <v>-6.0119722399999999E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>293</v>
       </c>
@@ -15509,7 +15550,7 @@
         <v>3.0183041999999999E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>294</v>
       </c>
@@ -15550,7 +15591,7 @@
         <v>1.48413612E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>295</v>
       </c>
@@ -15591,7 +15632,7 @@
         <v>-1.24978964E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>296</v>
       </c>
@@ -15632,7 +15673,7 @@
         <v>-1.0103718899999999E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>297</v>
       </c>
@@ -15673,7 +15714,7 @@
         <v>5.0987682800000003E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>298</v>
       </c>
@@ -15714,7 +15755,7 @@
         <v>-4.5104774299999997E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>299</v>
       </c>
@@ -15755,7 +15796,7 @@
         <v>-1.35809142E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>300</v>
       </c>
@@ -15796,7 +15837,7 @@
         <v>4.4670782499999999E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>301</v>
       </c>
@@ -15837,7 +15878,7 @@
         <v>-2.1657877200000002E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>302</v>
       </c>
@@ -15878,7 +15919,7 @@
         <v>9.8801273600000003E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>303</v>
       </c>
@@ -15919,7 +15960,7 @@
         <v>-2.33944211E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>304</v>
       </c>
@@ -15960,7 +16001,7 @@
         <v>-1.8805982799999999E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>305</v>
       </c>
@@ -16001,7 +16042,7 @@
         <v>3.2829669899999997E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>306</v>
       </c>
@@ -16042,7 +16083,7 @@
         <v>7.2368700999999999E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>307</v>
       </c>
@@ -16083,7 +16124,7 @@
         <v>-2.4886356500000002E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>308</v>
       </c>
@@ -16124,7 +16165,7 @@
         <v>-3.6845735099999999E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>309</v>
       </c>
@@ -16165,7 +16206,7 @@
         <v>2.4455312E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>310</v>
       </c>
@@ -16206,7 +16247,7 @@
         <v>2.46150812E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>311</v>
       </c>
@@ -16247,7 +16288,7 @@
         <v>6.7574660000000002E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>312</v>
       </c>
@@ -16288,7 +16329,7 @@
         <v>1.4344065E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>313</v>
       </c>
@@ -16329,7 +16370,7 @@
         <v>2.3792953799999999E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>314</v>
       </c>
@@ -16370,7 +16411,7 @@
         <v>-1.1617451500000001E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>315</v>
       </c>
@@ -16411,7 +16452,7 @@
         <v>7.8685371599999998E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>316</v>
       </c>
@@ -16452,7 +16493,7 @@
         <v>-5.3969683400000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>317</v>
       </c>
@@ -16493,7 +16534,7 @@
         <v>-2.6003585999999999E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>318</v>
       </c>
@@ -16534,7 +16575,7 @@
         <v>-2.8133925000000001E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>319</v>
       </c>
@@ -16575,7 +16616,7 @@
         <v>1.1857132E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>320</v>
       </c>
@@ -16616,7 +16657,7 @@
         <v>7.7338247999999997E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>321</v>
       </c>
@@ -16661,7 +16702,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>322</v>
       </c>
@@ -16702,7 +16743,7 @@
         <v>6.3041655999999998E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>323</v>
       </c>
@@ -16743,7 +16784,7 @@
         <v>-0.1033477785</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>324</v>
       </c>
@@ -16784,7 +16825,7 @@
         <v>-3.0884954199999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>325</v>
       </c>
@@ -16825,7 +16866,7 @@
         <v>-1.02442694E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>326</v>
       </c>
@@ -16866,7 +16907,7 @@
         <v>5.8861395099999998E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>327</v>
       </c>
@@ -16907,7 +16948,7 @@
         <v>-1.37696548E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>328</v>
       </c>
@@ -16948,7 +16989,7 @@
         <v>4.8016711500000003E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>329</v>
       </c>
@@ -16989,7 +17030,7 @@
         <v>9.9383995000000003E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>330</v>
       </c>
@@ -17030,7 +17071,7 @@
         <v>-6.9731401499999998E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>331</v>
       </c>
@@ -17071,7 +17112,7 @@
         <v>4.1068518599999999E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>332</v>
       </c>
@@ -17112,7 +17153,7 @@
         <v>-4.8921187099999999E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>333</v>
       </c>
@@ -17153,7 +17194,7 @@
         <v>-7.4713090600000004E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>334</v>
       </c>
@@ -17194,7 +17235,7 @@
         <v>2.20965646E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>335</v>
       </c>
@@ -17235,7 +17276,7 @@
         <v>-2.9566677900000001E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>336</v>
       </c>
@@ -17276,7 +17317,7 @@
         <v>3.1680827000000002E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>337</v>
       </c>
@@ -17317,7 +17358,7 @@
         <v>-3.33170047E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>338</v>
       </c>
@@ -17360,7 +17401,7 @@
         <v>2.72703535E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>339</v>
       </c>
@@ -17403,7 +17444,7 @@
         <v>1.6852063099999998E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>340</v>
       </c>
@@ -17446,7 +17487,7 @@
         <v>5.6024989999999995E-4</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>341</v>
       </c>
@@ -17489,7 +17530,7 @@
         <v>5.4671150799999998E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>342</v>
       </c>
@@ -17532,7 +17573,7 @@
         <v>-5.9004177800000002E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>343</v>
       </c>
@@ -17575,7 +17616,7 @@
         <v>-1.20983775E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>344</v>
       </c>
@@ -17618,7 +17659,7 @@
         <v>-6.4559176199999999E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>345</v>
       </c>
@@ -17661,7 +17702,7 @@
         <v>1.3685192800000001E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>346</v>
       </c>
@@ -17704,7 +17745,7 @@
         <v>0.15258222560000001</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>347</v>
       </c>
@@ -17747,7 +17788,7 @@
         <v>2.0253786100000001E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>348</v>
       </c>
@@ -17790,7 +17831,7 @@
         <v>1.1835542500000001E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>349</v>
       </c>
@@ -17833,7 +17874,7 @@
         <v>-1.51415126E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>350</v>
       </c>
@@ -17876,7 +17917,7 @@
         <v>2.53961199E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>351</v>
       </c>
@@ -17919,7 +17960,7 @@
         <v>3.7066885899999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>352</v>
       </c>
@@ -17962,7 +18003,7 @@
         <v>-4.6865470899999997E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>353</v>
       </c>
@@ -18005,7 +18046,7 @@
         <v>1.50416584E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>354</v>
       </c>
@@ -18048,7 +18089,7 @@
         <v>-2.9166265600000001E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>355</v>
       </c>
@@ -18091,7 +18132,7 @@
         <v>2.7971484200000001E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>356</v>
       </c>
@@ -18134,7 +18175,7 @@
         <v>-2.0013730399999999E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>357</v>
       </c>
@@ -18177,7 +18218,7 @@
         <v>4.4918432799999998E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>358</v>
       </c>
@@ -18220,7 +18261,7 @@
         <v>-2.19503892E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>359</v>
       </c>
@@ -18263,7 +18304,7 @@
         <v>6.2323196999999999E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>360</v>
       </c>
@@ -18306,7 +18347,7 @@
         <v>-2.0702449099999999E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>361</v>
       </c>
@@ -18349,7 +18390,7 @@
         <v>-5.8629294999999998E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>362</v>
       </c>
@@ -18392,7 +18433,7 @@
         <v>-9.6554308999999994E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
         <v>363</v>
       </c>
@@ -18435,7 +18476,7 @@
         <v>2.3097236199999999E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>364</v>
       </c>
@@ -18478,7 +18519,7 @@
         <v>4.5680996999999997E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>365</v>
       </c>
@@ -18521,7 +18562,7 @@
         <v>2.1730174099999999E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>366</v>
       </c>
@@ -18564,7 +18605,7 @@
         <v>4.6134139400000003E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>367</v>
       </c>
@@ -18607,7 +18648,7 @@
         <v>1.8563807700000001E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>368</v>
       </c>
@@ -18650,7 +18691,7 @@
         <v>-5.8134754900000002E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>369</v>
       </c>
@@ -18693,7 +18734,7 @@
         <v>-6.9223738000000002E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>370</v>
       </c>
@@ -18736,7 +18777,7 @@
         <v>3.5687046899999998E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>371</v>
       </c>
@@ -18779,7 +18820,7 @@
         <v>-3.7982612700000001E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>372</v>
       </c>
@@ -18822,7 +18863,7 @@
         <v>-1.14299877E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>373</v>
       </c>
@@ -18867,7 +18908,7 @@
         <v>2.60805263E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>374</v>
       </c>
@@ -18912,52 +18953,52 @@
         <v>4.4107439900000003E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A363" s="12" t="s">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A363" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B363" s="13">
+      <c r="B363" s="11">
         <v>1.4208332999999999E-3</v>
       </c>
-      <c r="C363" s="13">
+      <c r="C363" s="11">
         <v>4.6667056000000004E-3</v>
       </c>
-      <c r="D363" s="13">
+      <c r="D363" s="11">
         <v>3.0696629999999998E-3</v>
       </c>
-      <c r="E363" s="13">
+      <c r="E363" s="11">
         <v>5.0898753999999999E-3</v>
       </c>
-      <c r="F363" s="13">
+      <c r="F363" s="11">
         <v>3.1049790399999999E-2</v>
       </c>
-      <c r="G363" s="13">
+      <c r="G363" s="11">
         <v>3.9553230999999998E-3</v>
       </c>
-      <c r="H363" s="13">
+      <c r="H363" s="11">
         <v>1.92787107E-2</v>
       </c>
-      <c r="I363" s="13">
+      <c r="I363" s="11">
         <v>-1.7800689500000001E-2</v>
       </c>
-      <c r="J363" s="13">
+      <c r="J363" s="11">
         <v>7.1080841000000002E-3</v>
       </c>
-      <c r="K363" s="13">
+      <c r="K363" s="11">
         <v>-1.7762822800000001E-2</v>
       </c>
-      <c r="L363" s="13">
+      <c r="L363" s="11">
         <v>-3.2286883500000002E-2</v>
       </c>
-      <c r="M363" s="14">
+      <c r="M363" s="12">
         <v>-1.48211525E-2</v>
       </c>
-      <c r="N363" s="14"/>
-      <c r="O363" s="14">
+      <c r="N363" s="12"/>
+      <c r="O363" s="12">
         <v>4.19909859E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>376</v>
       </c>
@@ -19004,7 +19045,7 @@
         <v>8.5339666999999994E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>377</v>
       </c>
@@ -19051,7 +19092,7 @@
         <v>-1.9843182500000001E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>378</v>
       </c>
@@ -19098,7 +19139,7 @@
         <v>2.6584448199999999E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>379</v>
       </c>
@@ -19145,7 +19186,7 @@
         <v>-8.3459871300000002E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>380</v>
       </c>
@@ -19192,7 +19233,7 @@
         <v>-4.9355108000000002E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
         <v>381</v>
       </c>
@@ -19239,7 +19280,7 @@
         <v>4.4847542300000001E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>382</v>
       </c>
@@ -19286,7 +19327,7 @@
         <v>1.8555510099999999E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>383</v>
       </c>
@@ -19333,7 +19374,7 @@
         <v>-1.8366289899999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>384</v>
       </c>
@@ -19380,7 +19421,7 @@
         <v>8.6525226000000004E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
         <v>385</v>
       </c>
@@ -19427,7 +19468,7 @@
         <v>1.51083461E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
         <v>386</v>
       </c>
@@ -19474,7 +19515,7 @@
         <v>4.6701914499999997E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>387</v>
       </c>
@@ -19521,7 +19562,7 @@
         <v>-6.1063070599999998E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>388</v>
       </c>
@@ -19568,7 +19609,7 @@
         <v>-4.09947721E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>389</v>
       </c>
@@ -19615,7 +19656,7 @@
         <v>1.16202913E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>390</v>
       </c>
@@ -19662,7 +19703,7 @@
         <v>3.0369708400000001E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>391</v>
       </c>
@@ -19709,7 +19750,7 @@
         <v>-1.17241703E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>392</v>
       </c>
@@ -19756,7 +19797,7 @@
         <v>4.0407730400000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>393</v>
       </c>
@@ -19803,7 +19844,7 @@
         <v>7.7170854499999997E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>394</v>
       </c>
@@ -19850,7 +19891,7 @@
         <v>-3.1805936399999998E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>395</v>
       </c>
@@ -19897,7 +19938,7 @@
         <v>4.2453832999999998E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>396</v>
       </c>
@@ -19944,7 +19985,7 @@
         <v>2.4654507999999999E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>397</v>
       </c>
@@ -19991,7 +20032,7 @@
         <v>2.8036350000000001E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>398</v>
       </c>
@@ -20038,7 +20079,7 @@
         <v>-2.0584616199999999E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>399</v>
       </c>
@@ -20085,7 +20126,7 @@
         <v>-6.8764513000000001E-3</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>400</v>
       </c>
@@ -20132,7 +20173,7 @@
         <v>7.1548963300000004E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
         <v>401</v>
       </c>
@@ -20179,7 +20220,7 @@
         <v>-6.4581301199999996E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
         <v>402</v>
       </c>
@@ -20226,7 +20267,7 @@
         <v>-1.8360771500000001E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391" s="3" t="s">
         <v>403</v>
       </c>
@@ -20273,7 +20314,7 @@
         <v>-4.1382711999999999E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>404</v>
       </c>
@@ -20320,7 +20361,7 @@
         <v>1.3258148000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>405</v>
       </c>
@@ -20367,7 +20408,7 @@
         <v>3.5106701099999998E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>406</v>
       </c>
@@ -20414,7 +20455,7 @@
         <v>5.0036617000000002E-3</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>407</v>
       </c>
@@ -20461,7 +20502,7 @@
         <v>-1.8795876100000001E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>408</v>
       </c>
@@ -20508,7 +20549,7 @@
         <v>4.5051259999999999E-3</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>409</v>
       </c>
@@ -20555,7 +20596,7 @@
         <v>-2.7480809799999999E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>410</v>
       </c>
@@ -20602,7 +20643,7 @@
         <v>2.0351352000000001E-3</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>411</v>
       </c>
@@ -20649,7 +20690,7 @@
         <v>1.04843826E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>412</v>
       </c>
@@ -20696,7 +20737,7 @@
         <v>1.2092186899999999E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
         <v>413</v>
       </c>
@@ -20743,7 +20784,7 @@
         <v>1.4798544E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>414</v>
       </c>
@@ -20790,7 +20831,7 @@
         <v>-6.7558669999999996E-4</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>415</v>
       </c>
@@ -20837,7 +20878,7 @@
         <v>7.4335536600000002E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>416</v>
       </c>
@@ -20884,7 +20925,7 @@
         <v>-8.7259719000000006E-3</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>417</v>
       </c>
@@ -20931,7 +20972,7 @@
         <v>-1.72526652E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>418</v>
       </c>
@@ -20978,7 +21019,7 @@
         <v>0.1062794019</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>419</v>
       </c>
@@ -21025,7 +21066,7 @@
         <v>-4.9658137000000001E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>420</v>
       </c>
@@ -21072,7 +21113,7 @@
         <v>7.5495535200000005E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>421</v>
       </c>
@@ -21119,7 +21160,7 @@
         <v>4.4243435999999997E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>422</v>
       </c>
@@ -21166,7 +21207,7 @@
         <v>7.0593388000000007E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>423</v>
       </c>
@@ -21213,7 +21254,7 @@
         <v>8.6238608000000008E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>424</v>
       </c>
@@ -21260,7 +21301,7 @@
         <v>3.1120028500000001E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>425</v>
       </c>
@@ -21307,7 +21348,7 @@
         <v>6.5059606199999995E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>426</v>
       </c>
@@ -21354,7 +21395,7 @@
         <v>-3.6780116699999997E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>427</v>
       </c>
@@ -21401,7 +21442,7 @@
         <v>-3.8235104200000002E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>428</v>
       </c>
@@ -21448,7 +21489,7 @@
         <v>3.6858637E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" s="3" t="s">
         <v>429</v>
       </c>
@@ -21495,7 +21536,7 @@
         <v>-9.8619469999999994E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
         <v>430</v>
       </c>
@@ -21542,7 +21583,7 @@
         <v>-3.4880152800000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419" s="3" t="s">
         <v>431</v>
       </c>
@@ -21589,7 +21630,7 @@
         <v>7.1715008000000002E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>432</v>
       </c>
@@ -21636,7 +21677,7 @@
         <v>3.1653523400000001E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>433</v>
       </c>
@@ -21683,7 +21724,7 @@
         <v>2.2276880000000001E-4</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>434</v>
       </c>
@@ -21730,7 +21771,7 @@
         <v>4.4148222899999999E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>435</v>
       </c>
@@ -21777,7 +21818,7 @@
         <v>4.3464664000000004E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>436</v>
       </c>
@@ -21824,7 +21865,7 @@
         <v>-9.4432614999999994E-3</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425" s="3" t="s">
         <v>437</v>
       </c>
@@ -21871,7 +21912,7 @@
         <v>1.7773288299999999E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>438</v>
       </c>
@@ -21918,7 +21959,7 @@
         <v>-1.54024824E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>439</v>
       </c>
@@ -21965,7 +22006,7 @@
         <v>-1.6400494299999999E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>440</v>
       </c>
@@ -22012,7 +22053,7 @@
         <v>6.6472053999999999E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>441</v>
       </c>
@@ -22059,7 +22100,7 @@
         <v>1.46218554E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>442</v>
       </c>
@@ -22106,7 +22147,7 @@
         <v>6.5659443299999995E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" s="3" t="s">
         <v>443</v>
       </c>
@@ -22153,7 +22194,7 @@
         <v>5.4768992199999998E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>444</v>
       </c>
@@ -22200,7 +22241,7 @@
         <v>-3.8328404599999998E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>445</v>
       </c>
@@ -22247,7 +22288,7 @@
         <v>7.0638540999999999E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>446</v>
       </c>
@@ -22294,7 +22335,7 @@
         <v>5.60823539E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" s="3" t="s">
         <v>447</v>
       </c>
@@ -22341,7 +22382,7 @@
         <v>1.4644860399999999E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" s="3" t="s">
         <v>448</v>
       </c>
@@ -22388,7 +22429,7 @@
         <v>-0.1057481738</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
         <v>449</v>
       </c>
@@ -22435,7 +22476,7 @@
         <v>-1.3003313799999999E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" s="3" t="s">
         <v>450</v>
       </c>
@@ -22482,7 +22523,7 @@
         <v>2.47417334E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" s="3" t="s">
         <v>451</v>
       </c>
@@ -22529,7 +22570,7 @@
         <v>1.9595914200000002E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>452</v>
       </c>
@@ -22576,7 +22617,7 @@
         <v>1.9730331199999999E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>453</v>
       </c>
@@ -22623,7 +22664,7 @@
         <v>-4.6318360900000001E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>454</v>
       </c>
@@ -22670,7 +22711,7 @@
         <v>6.7621316700000003E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" s="3" t="s">
         <v>455</v>
       </c>
@@ -22717,7 +22758,7 @@
         <v>-0.1588377221</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>456</v>
       </c>
@@ -22764,7 +22805,7 @@
         <v>0.16935819969999999</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
         <v>457</v>
       </c>
@@ -22811,7 +22852,7 @@
         <v>-5.9348065999999998E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>458</v>
       </c>
@@ -22858,7 +22899,7 @@
         <v>0.13870585320000001</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>459</v>
       </c>
@@ -22905,7 +22946,7 @@
         <v>2.0513940500000001E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>460</v>
       </c>
@@ -22952,7 +22993,7 @@
         <v>-4.2162065200000001E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>461</v>
       </c>
@@ -22999,7 +23040,7 @@
         <v>-3.5440469000000002E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>462</v>
       </c>
@@ -23046,7 +23087,7 @@
         <v>2.7277627799999999E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>463</v>
       </c>
@@ -23093,7 +23134,7 @@
         <v>-3.2955341700000002E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
         <v>464</v>
       </c>
@@ -23140,7 +23181,7 @@
         <v>7.7723072999999997E-3</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
         <v>465</v>
       </c>
@@ -23187,7 +23228,7 @@
         <v>-1.10906145E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A454" s="3" t="s">
         <v>466</v>
       </c>
@@ -23234,7 +23275,7 @@
         <v>3.7478523100000001E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A455" s="3" t="s">
         <v>467</v>
       </c>
@@ -23281,7 +23322,7 @@
         <v>1.9685594800000001E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>468</v>
       </c>
@@ -23328,7 +23369,7 @@
         <v>0.10313188230000001</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>469</v>
       </c>
@@ -23375,7 +23416,7 @@
         <v>-3.81398456E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>470</v>
       </c>
@@ -23422,7 +23463,7 @@
         <v>9.2648621E-3</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>471</v>
       </c>
@@ -23469,7 +23510,7 @@
         <v>4.1757626800000003E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>472</v>
       </c>
@@ -23516,7 +23557,7 @@
         <v>-2.0832417799999999E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>473</v>
       </c>
@@ -23563,7 +23604,7 @@
         <v>8.2494803000000005E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>474</v>
       </c>
@@ -23610,7 +23651,7 @@
         <v>0.1000695056</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>475</v>
       </c>
@@ -23657,7 +23698,7 @@
         <v>-4.9632270300000003E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>476</v>
       </c>
@@ -23704,7 +23745,7 @@
         <v>-8.5704167499999998E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
         <v>477</v>
       </c>
@@ -23751,7 +23792,7 @@
         <v>3.2800394599999998E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
         <v>478</v>
       </c>
@@ -23798,7 +23839,7 @@
         <v>1.03789915E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
         <v>479</v>
       </c>
@@ -23845,7 +23886,7 @@
         <v>4.0445777400000001E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
         <v>480</v>
       </c>
@@ -23892,7 +23933,7 @@
         <v>4.0293932300000002E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>481</v>
       </c>
@@ -23939,7 +23980,7 @@
         <v>-4.8094919700000002E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>482</v>
       </c>
@@ -23986,7 +24027,7 @@
         <v>-5.1828051600000001E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>483</v>
       </c>
@@ -24033,7 +24074,7 @@
         <v>4.2265605400000003E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>484</v>
       </c>
@@ -24080,7 +24121,7 @@
         <v>3.3290455999999999E-3</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>485</v>
       </c>
@@ -24127,7 +24168,7 @@
         <v>1.8826876199999999E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>486</v>
       </c>
@@ -24174,7 +24215,7 @@
         <v>-2.32509303E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>487</v>
       </c>
@@ -24221,7 +24262,7 @@
         <v>-3.4367130599999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A476" s="3" t="s">
         <v>488</v>
       </c>
@@ -24268,7 +24309,7 @@
         <v>9.8184454000000004E-3</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A477" s="3" t="s">
         <v>489</v>
       </c>
@@ -24315,7 +24356,7 @@
         <v>0.14301198970000001</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>490</v>
       </c>
@@ -24362,7 +24403,7 @@
         <v>-2.1309724999999998E-3</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>491</v>
       </c>
@@ -24409,7 +24450,7 @@
         <v>2.09351251E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" s="3" t="s">
         <v>492</v>
       </c>
@@ -24456,7 +24497,7 @@
         <v>5.6307457900000003E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A481" s="3" t="s">
         <v>493</v>
       </c>
@@ -24503,7 +24544,7 @@
         <v>-7.2436010199999998E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A482" s="3" t="s">
         <v>494</v>
       </c>
@@ -24550,7 +24591,7 @@
         <v>7.4737871600000005E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
         <v>495</v>
       </c>
@@ -24597,7 +24638,7 @@
         <v>-2.58902921E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>496</v>
       </c>
@@ -24644,7 +24685,7 @@
         <v>-3.1795198099999998E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>497</v>
       </c>
@@ -24691,7 +24732,7 @@
         <v>3.8893616999999998E-3</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>498</v>
       </c>
@@ -24738,7 +24779,7 @@
         <v>7.2687135000000002E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>499</v>
       </c>
@@ -24785,7 +24826,7 @@
         <v>-3.6299613999999998E-3</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>500</v>
       </c>
@@ -24832,7 +24873,7 @@
         <v>3.9125825900000001E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>501</v>
       </c>
@@ -24879,7 +24920,7 @@
         <v>1.8485381499999998E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>502</v>
       </c>
@@ -24926,7 +24967,7 @@
         <v>3.4909524999999997E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A491" s="3" t="s">
         <v>503</v>
       </c>
@@ -24973,7 +25014,7 @@
         <v>-3.8885656300000002E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A492" s="3" t="s">
         <v>504</v>
       </c>
@@ -25020,7 +25061,7 @@
         <v>-6.7587665999999996E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A493" s="3" t="s">
         <v>505</v>
       </c>
@@ -25067,7 +25108,7 @@
         <v>-3.6049787700000002E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A494" s="3" t="s">
         <v>506</v>
       </c>
@@ -25114,7 +25155,7 @@
         <v>-1.4716366999999999E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A495" s="3" t="s">
         <v>507</v>
       </c>
@@ -25161,7 +25202,7 @@
         <v>-2.2706914799999998E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A496" s="3" t="s">
         <v>508</v>
       </c>
@@ -25208,7 +25249,7 @@
         <v>2.7020118999999999E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A497" s="3" t="s">
         <v>509</v>
       </c>
@@ -25255,7 +25296,7 @@
         <v>-0.10190454760000001</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A498" s="3" t="s">
         <v>510</v>
       </c>
@@ -25302,7 +25343,7 @@
         <v>-2.2839838099999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A499" s="3" t="s">
         <v>511</v>
       </c>
@@ -25349,7 +25390,7 @@
         <v>-0.1454467113</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A500" s="3" t="s">
         <v>512</v>
       </c>
@@ -25396,7 +25437,7 @@
         <v>4.7812629600000003E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A501" s="3" t="s">
         <v>513</v>
       </c>
@@ -25443,7 +25484,7 @@
         <v>6.9049619699999995E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A502" s="3" t="s">
         <v>514</v>
       </c>
@@ -25490,7 +25531,7 @@
         <v>-7.7521399899999996E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A503" s="3" t="s">
         <v>515</v>
       </c>
@@ -25537,7 +25578,7 @@
         <v>-5.7766010000000001E-3</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A504" s="3" t="s">
         <v>516</v>
       </c>
@@ -25584,7 +25625,7 @@
         <v>-5.4135658099999998E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A505" s="3" t="s">
         <v>517</v>
       </c>
@@ -25631,7 +25672,7 @@
         <v>-5.7725011100000001E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A506" s="3" t="s">
         <v>518</v>
       </c>
@@ -25678,7 +25719,7 @@
         <v>4.7614707700000002E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A507" s="3" t="s">
         <v>519</v>
       </c>
@@ -25725,7 +25766,7 @@
         <v>3.5907415200000001E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A508" s="3" t="s">
         <v>520</v>
       </c>
@@ -25772,7 +25813,7 @@
         <v>-2.2745970800000001E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A509" s="3" t="s">
         <v>521</v>
       </c>
@@ -25819,7 +25860,7 @@
         <v>8.1629629999999999E-4</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A510" s="3" t="s">
         <v>522</v>
       </c>
@@ -25866,7 +25907,7 @@
         <v>-2.1820301E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A511" s="3" t="s">
         <v>523</v>
       </c>
@@ -25913,7 +25954,7 @@
         <v>4.8453508499999999E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A512" s="3" t="s">
         <v>524</v>
       </c>
@@ -25960,7 +26001,7 @@
         <v>-3.5253850999999998E-3</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A513" s="3" t="s">
         <v>525</v>
       </c>
@@ -26007,7 +26048,7 @@
         <v>1.3635827600000001E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A514" s="3" t="s">
         <v>526</v>
       </c>
@@ -26054,7 +26095,7 @@
         <v>-2.3561716699999999E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A515" s="3" t="s">
         <v>527</v>
       </c>
@@ -26101,7 +26142,7 @@
         <v>-2.2743283600000001E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A516" s="3" t="s">
         <v>528</v>
       </c>
@@ -26148,7 +26189,7 @@
         <v>-7.1006550000000002E-4</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A517" s="3" t="s">
         <v>529</v>
       </c>
@@ -26195,7 +26236,7 @@
         <v>4.6409760899999999E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A518" s="3" t="s">
         <v>530</v>
       </c>
@@ -26242,7 +26283,7 @@
         <v>-6.5265386999999999E-3</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A519" s="3" t="s">
         <v>531</v>
       </c>
@@ -26289,7 +26330,7 @@
         <v>-1.40899474E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A520" s="3" t="s">
         <v>532</v>
       </c>
@@ -26336,7 +26377,7 @@
         <v>-4.2988647000000001E-3</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A521" s="3" t="s">
         <v>533</v>
       </c>
@@ -26383,7 +26424,7 @@
         <v>-3.8278546699999999E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A522" s="3" t="s">
         <v>534</v>
       </c>
@@ -26430,7 +26471,7 @@
         <v>1.0569024E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A523" s="3" t="s">
         <v>535</v>
       </c>
@@ -26477,7 +26518,7 @@
         <v>-2.0233996099999998E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A524" s="3" t="s">
         <v>536</v>
       </c>
@@ -26524,7 +26565,7 @@
         <v>-3.7943615700000002E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A525" s="3" t="s">
         <v>537</v>
       </c>
@@ -26571,7 +26612,7 @@
         <v>3.66310938E-2</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A526" s="3" t="s">
         <v>538</v>
       </c>
@@ -26618,7 +26659,7 @@
         <v>-8.5403562999999995E-3</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A527" s="3" t="s">
         <v>539</v>
       </c>
@@ -26665,7 +26706,7 @@
         <v>3.5740743399999997E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
         <v>540</v>
       </c>
@@ -26712,7 +26753,7 @@
         <v>-2.9786457499999999E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A529" s="3" t="s">
         <v>541</v>
       </c>
@@ -26759,7 +26800,7 @@
         <v>-2.93568817E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A530" s="3" t="s">
         <v>542</v>
       </c>
@@ -26806,7 +26847,7 @@
         <v>7.2572303800000001E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A531" s="3" t="s">
         <v>543</v>
       </c>
@@ -26853,7 +26894,7 @@
         <v>7.2672476200000002E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
         <v>544</v>
       </c>
@@ -26900,7 +26941,7 @@
         <v>-3.8238074300000001E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A533" s="3" t="s">
         <v>545</v>
       </c>
@@ -26947,7 +26988,7 @@
         <v>4.7109391600000002E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A534" s="3" t="s">
         <v>546</v>
       </c>
@@ -26994,7 +27035,7 @@
         <v>-2.6399231400000001E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A535" s="3" t="s">
         <v>547</v>
       </c>
@@ -27041,7 +27082,7 @@
         <v>6.4005011099999995E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>548</v>
       </c>
@@ -27088,7 +27129,7 @@
         <v>1.57097405E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A537" s="3" t="s">
         <v>549</v>
       </c>
@@ -27135,7 +27176,7 @@
         <v>-1.5840400399999999E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>550</v>
       </c>
@@ -27182,7 +27223,7 @@
         <v>-3.4012521E-3</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A539" s="3" t="s">
         <v>551</v>
       </c>
@@ -27229,7 +27270,7 @@
         <v>-1.4834904100000001E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A540" s="3" t="s">
         <v>552</v>
       </c>
@@ -27276,7 +27317,7 @@
         <v>-5.0849413599999997E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A541" s="3" t="s">
         <v>553</v>
       </c>
@@ -27323,7 +27364,7 @@
         <v>-1.9507468399999998E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
         <v>554</v>
       </c>
@@ -27370,7 +27411,7 @@
         <v>2.35168774E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
         <v>555</v>
       </c>
@@ -27417,7 +27458,7 @@
         <v>4.9108402500000002E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
         <v>556</v>
       </c>
@@ -27464,7 +27505,7 @@
         <v>-8.3189418999999997E-3</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
         <v>557</v>
       </c>
@@ -27511,7 +27552,7 @@
         <v>7.4526343999999998E-3</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>558</v>
       </c>
@@ -27558,7 +27599,7 @@
         <v>-2.3793733500000001E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
         <v>559</v>
       </c>
@@ -27605,7 +27646,7 @@
         <v>-3.1483398699999998E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>560</v>
       </c>
@@ -27652,7 +27693,7 @@
         <v>2.8036400699999998E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
         <v>561</v>
       </c>
@@ -27699,7 +27740,7 @@
         <v>3.3179062000000002E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
         <v>562</v>
       </c>
@@ -27746,7 +27787,7 @@
         <v>-1.78119877E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
         <v>563</v>
       </c>
@@ -27793,7 +27834,7 @@
         <v>1.7697179899999999E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
         <v>564</v>
       </c>
@@ -27840,7 +27881,7 @@
         <v>-1.1360541199999999E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
         <v>565</v>
       </c>
@@ -27887,7 +27928,7 @@
         <v>1.6242190199999999E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
         <v>566</v>
       </c>
@@ -27934,7 +27975,7 @@
         <v>-1.6346554100000001E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
         <v>567</v>
       </c>
@@ -27981,7 +28022,7 @@
         <v>-2.9471431000000002E-3</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A556" s="3" t="s">
         <v>568</v>
       </c>
@@ -28028,7 +28069,7 @@
         <v>1.53103057E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A557" s="3" t="s">
         <v>569</v>
       </c>
@@ -28075,7 +28116,7 @@
         <v>2.9937477099999998E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A558" s="3" t="s">
         <v>570</v>
       </c>
@@ -28122,7 +28163,7 @@
         <v>-1.6588981199999998E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A559" s="3" t="s">
         <v>571</v>
       </c>
@@ -28169,7 +28210,7 @@
         <v>-2.8615049600000001E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A560" s="3" t="s">
         <v>572</v>
       </c>
@@ -28216,7 +28257,7 @@
         <v>-2.6063957299999999E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
         <v>573</v>
       </c>
@@ -28263,7 +28304,7 @@
         <v>-4.1779079900000002E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A562" s="3" t="s">
         <v>574</v>
       </c>
@@ -28310,7 +28351,7 @@
         <v>7.4950599999999994E-5</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A563" s="3" t="s">
         <v>575</v>
       </c>
@@ -28357,7 +28398,7 @@
         <v>4.9883945999999998E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A564" s="3" t="s">
         <v>576</v>
       </c>
@@ -28404,7 +28445,7 @@
         <v>-4.2565295E-3</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A565" s="3" t="s">
         <v>577</v>
       </c>
@@ -28451,7 +28492,7 @@
         <v>3.3310012100000001E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
         <v>578</v>
       </c>
@@ -28498,7 +28539,7 @@
         <v>4.18962893E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A567" s="3" t="s">
         <v>579</v>
       </c>
@@ -28545,7 +28586,7 @@
         <v>-1.4441001000000001E-3</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
         <v>580</v>
       </c>
@@ -28592,7 +28633,7 @@
         <v>-1.8573670099999998E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
         <v>581</v>
       </c>
@@ -28639,7 +28680,7 @@
         <v>1.54032157E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
         <v>582</v>
       </c>
@@ -28686,7 +28727,7 @@
         <v>-1.003405E-4</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A571" s="3" t="s">
         <v>583</v>
       </c>
@@ -28733,7 +28774,7 @@
         <v>5.4005531500000002E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A572" s="3" t="s">
         <v>584</v>
       </c>
@@ -28780,7 +28821,7 @@
         <v>2.37149418E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A573" s="3" t="s">
         <v>585</v>
       </c>
@@ -28827,43 +28868,43 @@
         <v>6.7185419800000007E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
       <c r="M575" s="3"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
       <c r="M576" s="3"/>
     </row>
-    <row r="577" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M577" s="3"/>
     </row>
-    <row r="578" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M578" s="3"/>
     </row>
-    <row r="579" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M579" s="3"/>
     </row>
-    <row r="580" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M580" s="3"/>
     </row>
-    <row r="581" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M581" s="3"/>
     </row>
-    <row r="582" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M582" s="3"/>
     </row>
-    <row r="583" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M583" s="3"/>
     </row>
-    <row r="584" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M584" s="3"/>
     </row>
-    <row r="585" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M585" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28871,31 +28912,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AE3C44-90B5-4311-A45B-F6987BBFB321}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.84375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -28912,7 +28955,7 @@
         <v>2.197802197802198E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -28929,7 +28972,7 @@
         <v>0.25274725274725279</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -28946,7 +28989,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -28963,7 +29006,7 @@
         <v>1.098901098901099E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -28980,7 +29023,7 @@
         <v>1.098901098901099E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -28997,7 +29040,7 @@
         <v>3.2967032967032968E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -29014,7 +29057,7 @@
         <v>0.37362637362637369</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -29031,7 +29074,7 @@
         <v>4.3956043956043959E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -29045,7 +29088,7 @@
         <v>6.1855670103092786E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -29062,7 +29105,7 @@
         <v>4.3956043956043959E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -29074,7 +29117,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -29083,7 +29126,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -29100,7 +29143,7 @@
         <v>5.4945054945054951E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>1.0000000000000002</v>
       </c>
@@ -29116,7 +29159,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29128,25 +29172,25 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3828125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="1018" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.53515625" customWidth="1"/>
+    <col min="12" max="12" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.15234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="1018" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -29187,7 +29231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>0.02</v>
       </c>
@@ -29229,40 +29273,41 @@
       </c>
       <c r="N2" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>